--- a/src/main/resources/template/excel/export/storeSellReport.xlsx
+++ b/src/main/resources/template/excel/export/storeSellReport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="13480" yWindow="5440" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -141,10 +141,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.skuCore}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>商品名称</t>
     <rPh sb="1" eb="2">
       <t>pin</t>
@@ -330,6 +326,10 @@
   </si>
   <si>
     <t>$[SUMPRODUCT(T3:T3+0)]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.skuCode}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -913,7 +913,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -922,46 +922,46 @@
         <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -972,58 +972,58 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -1039,10 +1039,10 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>4</v>
@@ -1054,22 +1054,22 @@
         <v>6</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="R4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/template/excel/export/storeSellReport.xlsx
+++ b/src/main/resources/template/excel/export/storeSellReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13480" yWindow="5440" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -338,7 +338,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -470,11 +470,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -879,28 +879,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -992,37 +992,37 @@
       <c r="I3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1038,37 +1038,37 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="8" t="s">
         <v>51</v>
       </c>
     </row>

--- a/src/main/resources/template/excel/export/storeSellReport.xlsx
+++ b/src/main/resources/template/excel/export/storeSellReport.xlsx
@@ -338,7 +338,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -851,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3:T4"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/template/excel/export/storeSellReport.xlsx
+++ b/src/main/resources/template/excel/export/storeSellReport.xlsx
@@ -102,16 +102,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>门店销售报表</t>
-    <rPh sb="0" eb="1">
-      <t>men'd</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiao's</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>机构编号</t>
     <rPh sb="0" eb="1">
       <t>ji'g</t>
@@ -330,6 +320,10 @@
   </si>
   <si>
     <t>${obj.skuCode}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店商品进销汇总分析</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -338,7 +332,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -470,11 +464,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:T4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -879,41 +873,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -922,108 +916,108 @@
         <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -1038,38 +1032,38 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="R4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="S4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="T4" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
